--- a/Laravel_kouka3_kayano.xlsx
+++ b/Laravel_kouka3_kayano.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25514"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kayanoshunpei/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAMP\htdocs\kouka3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5742F36A-A997-0A42-A5DC-34C0A6DF8FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" firstSheet="1" activeTab="1" xr2:uid="{4E4CA530-6E68-3F44-B4A2-9576CA5519DD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={A2C2CBA0-FC2D-8644-BADC-394274F83917}</author>
     <author>tc={8318EC7B-9478-D746-BE1C-10EEB4CEFEC1}</author>
@@ -45,48 +44,98 @@
     <author>tc={5439215E-9ED9-F846-B0F5-06985FDC32A2}</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{A2C2CBA0-FC2D-8644-BADC-394274F83917}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     コントローラ名とアクション名を記載してください。
 例）HelloController@index</t>
+        </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="1" shapeId="0" xr:uid="{8318EC7B-9478-D746-BE1C-10EEB4CEFEC1}">
+    <comment ref="E6" authorId="1" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     コントローラ名とアクション名を記載してください。
 例）HelloController@index</t>
+        </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="2" shapeId="0" xr:uid="{C1483087-8965-9642-AFE7-447A93BB823E}">
+    <comment ref="E8" authorId="2" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     コントローラ名とアクション名を記載してください。
 例）HelloController@index</t>
+        </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="3" shapeId="0" xr:uid="{CFB1535D-75C7-B842-AA44-26747DF51818}">
+    <comment ref="E9" authorId="3" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     バリデーションを記載しているモデル名やコントローラ名、formリクエストなどを記載してください。</t>
+        </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="4" shapeId="0" xr:uid="{5439215E-9ED9-F846-B0F5-06985FDC32A2}">
+    <comment ref="E10" authorId="4" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     モデル名を記載してください。
 例）Person.php</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -211,13 +260,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>氏名：</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">シメイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>採点項目</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">サイテン </t>
@@ -454,6 +496,19 @@
     <t>合計</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ゴウケイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氏名：朝倉 雅</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シメイ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アサクラ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミヤビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -461,11 +516,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -936,21 +991,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3E923D-3AAF-1E41-A7E1-CB466BFE4F94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="20.100000000000001"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -961,7 +1016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -974,7 +1029,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -989,7 +1044,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1004,7 +1059,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1019,7 +1074,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1034,7 +1089,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1049,7 +1104,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1064,7 +1119,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1079,7 +1134,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1094,7 +1149,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1109,7 +1164,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1124,7 +1179,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1139,7 +1194,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -1154,7 +1209,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
@@ -1169,7 +1224,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -1182,7 +1237,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -1197,7 +1252,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -1212,7 +1267,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
@@ -1225,7 +1280,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
@@ -1240,7 +1295,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B22" s="2">
         <f>AVERAGE(B3:B21)</f>
         <v>73.10526315789474</v>
@@ -1253,7 +1308,7 @@
       <c r="E22" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B21">
+  <sortState ref="A3:B21">
     <sortCondition ref="A3:A21"/>
   </sortState>
   <phoneticPr fontId="1"/>
@@ -1263,58 +1318,58 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5684C86-B59C-0246-AF2B-9A18F5CB9FC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="20.100000000000001"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="42.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="2" width="42.36328125" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" customWidth="1"/>
+    <col min="5" max="5" width="31.36328125" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39.950000000000003" customHeight="1">
+    <row r="1" spans="1:6" ht="39.9" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="32.1" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="6"/>
       <c r="B2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="32.1" customHeight="1">
+    </row>
+    <row r="3" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="D3" s="4">
         <v>10</v>
@@ -1324,15 +1379,15 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="32.1" customHeight="1">
+    <row r="4" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="D4" s="4">
         <v>10</v>
@@ -1342,15 +1397,15 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="32.1" customHeight="1">
+    <row r="5" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="D5" s="4">
         <v>10</v>
@@ -1358,15 +1413,15 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="32.1" customHeight="1">
+    <row r="6" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="D6" s="4">
         <v>10</v>
@@ -1374,15 +1429,15 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="32.1" customHeight="1">
+    <row r="7" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="D7" s="4">
         <v>20</v>
@@ -1392,15 +1447,15 @@
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="32.1" customHeight="1">
+    <row r="8" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="D8" s="4">
         <v>10</v>
@@ -1408,15 +1463,15 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="32.1" customHeight="1">
+    <row r="9" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="D9" s="4">
         <v>5</v>
@@ -1424,15 +1479,15 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="32.1" customHeight="1">
+    <row r="10" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="D10" s="4">
         <v>5</v>
@@ -1440,15 +1495,15 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="32.1" customHeight="1">
+    <row r="11" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D11" s="4">
         <v>5</v>
@@ -1458,15 +1513,15 @@
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="32.1" customHeight="1">
+    <row r="12" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D12" s="4">
         <v>5</v>
@@ -1476,15 +1531,15 @@
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="32.1" customHeight="1">
+    <row r="13" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="D13" s="4">
         <v>5</v>
@@ -1494,15 +1549,15 @@
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="32.1" customHeight="1">
+    <row r="14" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="D14" s="4">
         <v>5</v>
@@ -1512,9 +1567,9 @@
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="32.1" customHeight="1">
+    <row r="15" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E15" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="9">
         <f>SUM(F3:F14)</f>
@@ -1530,15 +1585,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100935727193CFB294CBDE814D6470C9632" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b79e7ce3a1d03dbf156b87ffe8be5d61">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5a886962-9ad2-43c7-994c-8d8461479502" xmlns:ns3="6b322a7a-be9c-4c26-af48-276481130b3d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d8a3fb45aacea5fce59822a997073c5e" ns2:_="" ns3:_="">
     <xsd:import namespace="5a886962-9ad2-43c7-994c-8d8461479502"/>
@@ -1761,10 +1807,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71056D9E-EB10-4369-91BC-5FC1591260F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C2E37B5-A2AC-45A4-9E74-431ABD178B4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5a886962-9ad2-43c7-994c-8d8461479502"/>
+    <ds:schemaRef ds:uri="6b322a7a-be9c-4c26-af48-276481130b3d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C2E37B5-A2AC-45A4-9E74-431ABD178B4B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71056D9E-EB10-4369-91BC-5FC1591260F2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>